--- a/holothuria_map4_map.xlsx
+++ b/holothuria_map4_map.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/github/Holothuria_atra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikko/Desktop/Crandall_Research_Project_2021/Holothuria_atra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCD295A5-C646-9E46-A3E0-1821A55AEE64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9C1D4-41B6-2041-A766-CC95DC65D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1680" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="holothuria_map4_map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -250,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1085,11 +1096,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,7 +1799,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B25">
@@ -2310,7 +2321,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B43">
@@ -2985,15 +2996,15 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:I70" si="0">SUM(C56,C14,C9)</f>
+        <f>SUM(C56,C14,C9)</f>
         <v>77</v>
       </c>
       <c r="D70">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C70:I70" si="0">SUM(D56,D14,D9)</f>
         <v>8</v>
       </c>
       <c r="E70">
-        <f t="shared" si="0"/>
+        <f>SUM(E56,E14,E9)</f>
         <v>0</v>
       </c>
       <c r="F70">
@@ -3009,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" si="0"/>
+        <f>SUM(I56,I14,I9)</f>
         <v>0</v>
       </c>
     </row>
@@ -3017,10 +3028,74 @@
       <c r="A71" t="s">
         <v>73</v>
       </c>
+      <c r="B71">
+        <f>SUM(B25,B3,B50,B6,B24,B2,B4,B22,B5,B46)</f>
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:I71" si="1">SUM(C25,C3,C50,C6,C24,C2,C4,C22,C5,C46)</f>
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
+      </c>
+      <c r="B72">
+        <f>SUM(B43,B48)</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>SUM(C43,C48)</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="C72:I72" si="2">SUM(D43,D48)</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/holothuria_map4_map.xlsx
+++ b/holothuria_map4_map.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikko/Desktop/Crandall_Research_Project_2021/Holothuria_atra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/github/Holothuria_atra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9C1D4-41B6-2041-A766-CC95DC65D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80C3FB8-CB58-0F41-A52B-E7F056277C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="holothuria_map4_map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Australia</t>
   </si>
@@ -240,22 +229,22 @@
     <t>XXXVIII</t>
   </si>
   <si>
-    <t>LII_c</t>
-  </si>
-  <si>
-    <t>VIII_c</t>
-  </si>
-  <si>
-    <t>XVI_c</t>
-  </si>
-  <si>
-    <t>Indonesian_Clade</t>
-  </si>
-  <si>
-    <t>Hawaiian Clade</t>
-  </si>
-  <si>
-    <t>Johnston Clade</t>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>XVI</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>I1</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1325,7 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1800,7 +1789,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2322,7 +2311,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2987,6 +2976,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <f>SUM(B62,B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:I69" si="0">SUM(C62,C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
@@ -3000,7 +3026,7 @@
         <v>77</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="C70:I70" si="0">SUM(D56,D14,D9)</f>
+        <f t="shared" ref="D70:H70" si="1">SUM(D56,D14,D9)</f>
         <v>8</v>
       </c>
       <c r="E70">
@@ -3008,15 +3034,15 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I70">
@@ -3033,31 +3059,31 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:I71" si="1">SUM(C25,C3,C50,C6,C24,C2,C4,C22,C5,C46)</f>
+        <f t="shared" ref="C71:I71" si="2">SUM(C25,C3,C50,C6,C24,C2,C4,C22,C5,C46)</f>
         <v>19</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
     </row>
@@ -3074,27 +3100,27 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="C72:I72" si="2">SUM(D43,D48)</f>
+        <f t="shared" ref="D72:I72" si="3">SUM(D43,D48)</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
